--- a/clean/unit/clean_unit/08003C.xlsx
+++ b/clean/unit/clean_unit/08003C.xlsx
@@ -392,7 +392,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>g/dL</t>
+          <t>g/dl</t>
         </is>
       </c>
       <c r="D2">
@@ -412,7 +412,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>g/dL</t>
+          <t>g/dl</t>
         </is>
       </c>
       <c r="D3">
@@ -432,7 +432,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>g/dL</t>
+          <t>g/dl</t>
         </is>
       </c>
       <c r="D4">
@@ -452,7 +452,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>gm/dL</t>
+          <t>gm/dl</t>
         </is>
       </c>
       <c r="D5">
@@ -472,7 +472,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>gm/dL</t>
+          <t>gm/dl</t>
         </is>
       </c>
       <c r="D6">
@@ -522,7 +522,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>g/dL</t>
+          <t>g/dl</t>
         </is>
       </c>
       <c r="D9">
@@ -542,7 +542,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>g/dL</t>
+          <t>g/dl</t>
         </is>
       </c>
       <c r="D10">
@@ -562,7 +562,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>g/dL</t>
+          <t>g/dl</t>
         </is>
       </c>
       <c r="D11">
@@ -580,11 +580,6 @@
           <t>gm%</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
       <c r="D12">
         <v>22822</v>
       </c>
@@ -617,7 +612,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>gm/dL</t>
+          <t>gm/dl</t>
         </is>
       </c>
       <c r="D14">
@@ -652,7 +647,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>g/dL</t>
+          <t>g/dl</t>
         </is>
       </c>
       <c r="D16">
@@ -670,6 +665,11 @@
           <t>pg</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>pg</t>
+        </is>
+      </c>
       <c r="D17">
         <v>1722</v>
       </c>
@@ -772,7 +772,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>g/dL</t>
+          <t>mg/dl</t>
         </is>
       </c>
       <c r="D23">
@@ -792,7 +792,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>g/dL</t>
+          <t>g/dl</t>
         </is>
       </c>
       <c r="D24">
@@ -812,7 +812,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>g/dL</t>
+          <t>g/dl</t>
         </is>
       </c>
       <c r="D25">
@@ -886,6 +886,11 @@
         </is>
       </c>
       <c r="B30" t="inlineStr">
+        <is>
+          <t>fl</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>fl</t>
         </is>

--- a/clean/unit/clean_unit/08003C.xlsx
+++ b/clean/unit/clean_unit/08003C.xlsx
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>2588242</v>
+        <v>2589389</v>
       </c>
     </row>
     <row r="4">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>727896</v>
+        <v>784378</v>
       </c>
     </row>
     <row r="5">

--- a/clean/unit/clean_unit/08003C.xlsx
+++ b/clean/unit/clean_unit/08003C.xlsx
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Assay_Unit</t>
+          <t>Unit_Clean</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
